--- a/public/templates/edumetrics-teacher-import-template.xlsx
+++ b/public/templates/edumetrics-teacher-import-template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreysegovia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeffreysegovia/dev/projects/school-app/public/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EA21F5-8615-E248-87C8-24207BBD2AD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A0D174-A210-D741-B300-2C9C320A2D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17200" xr2:uid="{5189AA58-D5C5-0B4D-83D2-414275BF1769}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Teacher ID</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Designation</t>
-  </si>
-  <si>
-    <t>Birthdate</t>
   </si>
   <si>
     <t>Gender</t>
@@ -536,9 +533,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -894,18 +890,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF0F2EB-5651-BA4E-B87A-76AAF89401F2}">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:K51"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -936,159 +932,6 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="1"/>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G27" s="1"/>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G43" s="1"/>
-    </row>
-    <row r="44" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G44" s="1"/>
-    </row>
-    <row r="45" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G45" s="1"/>
-    </row>
-    <row r="46" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G46" s="1"/>
-    </row>
-    <row r="47" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G47" s="1"/>
-    </row>
-    <row r="48" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
